--- a/Assets/Excel/CosmereCodesName.xlsx
+++ b/Assets/Excel/CosmereCodesName.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yling\UNITY\Program\CosmereCodesName\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EF5430-726D-4508-81A6-18994ECB8918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF86FB4C-89FA-4A59-A220-42623ABE2D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9700" yWindow="4050" windowWidth="17200" windowHeight="15370" xr2:uid="{A4CC4768-6466-43B2-8E1D-413DDF37FDFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{A4CC4768-6466-43B2-8E1D-413DDF37FDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Cosmere" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="259">
   <si>
     <t>#人物</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,46 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concept_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spot_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿多林·寇林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,6 +481,547 @@
   </si>
   <si>
     <t>#序号（必要）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>culture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>culture_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventsAndEras</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventsAndEras_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeforms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectAndMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectsAndMaterials_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locations_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifforms_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characters_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>books</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>books_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约尔延</t>
+  </si>
+  <si>
+    <t>Jorgen</t>
+  </si>
+  <si>
+    <t>波科级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>星景</t>
+  </si>
+  <si>
+    <t>Starsight</t>
+  </si>
+  <si>
+    <t>呼号</t>
+  </si>
+  <si>
+    <t>Callsign</t>
+  </si>
+  <si>
+    <t>上升环</t>
+  </si>
+  <si>
+    <t>Acclivity Ring</t>
+  </si>
+  <si>
+    <t>瓦尔瓦克斯人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Varvax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊同盟</t>
+  </si>
+  <si>
+    <t>Superiority</t>
+  </si>
+  <si>
+    <t>内德</t>
+  </si>
+  <si>
+    <t>Nedd</t>
+  </si>
+  <si>
+    <t>温契克</t>
+  </si>
+  <si>
+    <t>Winzik</t>
+  </si>
+  <si>
+    <t>阿尔塔之战</t>
+  </si>
+  <si>
+    <t>Battle of Alta</t>
+  </si>
+  <si>
+    <t>探究者</t>
+  </si>
+  <si>
+    <t>Delvers</t>
+  </si>
+  <si>
+    <t>莫里乌莫</t>
+  </si>
+  <si>
+    <t>Morriumur</t>
+  </si>
+  <si>
+    <t>塞托能力者</t>
+  </si>
+  <si>
+    <t>Cytonics</t>
+  </si>
+  <si>
+    <t>夜影</t>
+  </si>
+  <si>
+    <t>Nightshade</t>
+  </si>
+  <si>
+    <t>懦夫</t>
+  </si>
+  <si>
+    <t>Coward</t>
+  </si>
+  <si>
+    <t>斯苹</t>
+  </si>
+  <si>
+    <t>Spin</t>
+  </si>
+  <si>
+    <t>科布</t>
+  </si>
+  <si>
+    <t>Cobb</t>
+  </si>
+  <si>
+    <t>克雷尔人</t>
+  </si>
+  <si>
+    <t>Krell</t>
+  </si>
+  <si>
+    <t>末日虫</t>
+  </si>
+  <si>
+    <t>Doomslug</t>
+  </si>
+  <si>
+    <t>斯潘莎</t>
+  </si>
+  <si>
+    <t>Spensa</t>
+  </si>
+  <si>
+    <t>狄俄涅人</t>
+  </si>
+  <si>
+    <t>Diones</t>
+  </si>
+  <si>
+    <t>无处</t>
+  </si>
+  <si>
+    <t>Nowhere</t>
+  </si>
+  <si>
+    <t>欠揍脸</t>
+  </si>
+  <si>
+    <t>Jerkface</t>
+  </si>
+  <si>
+    <t>金玛琳</t>
+  </si>
+  <si>
+    <t>Kimmalyn</t>
+  </si>
+  <si>
+    <t>长者之路</t>
+  </si>
+  <si>
+    <t>Path of Elders</t>
+  </si>
+  <si>
+    <t>M机器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-Bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alanik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿拉妮克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vapor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薇珀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布蕾德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hesho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Weights and Measures </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砝码与测量号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gran-Gran</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pilot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light-line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残骸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ironsides</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混血犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班克斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇摆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Becca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cavern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morningtide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨潮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉尔戈级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Largo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦察机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿图罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arturo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡蒂雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hudiya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芙蕾雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freyja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flight School</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔塔基地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alta Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭生炸弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lifebuster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时代事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时代事件英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命形式英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,643 +1443,1014 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB6C4C7-4BF7-4775-8C7A-2F666786FF1A}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="20.58203125" customWidth="1"/>
+    <col min="4" max="17" width="24.58203125" customWidth="1"/>
+    <col min="18" max="19" width="20.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="3" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1588,68 +2460,1679 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DCE541-636C-421B-ADE8-F5660981B9DB}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" tooltip="Alanik" display="https://coppermind.net/wiki/Alanik" xr:uid="{F3DFD0F1-9A15-466A-B11B-624B39628350}"/>
+    <hyperlink ref="C16" r:id="rId2" tooltip="Vapor" display="https://coppermind.net/wiki/Vapor" xr:uid="{4C1D3857-A3BF-4E70-BC3B-8F76FD4D05AA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Excel/CosmereCodesName.xlsx
+++ b/Assets/Excel/CosmereCodesName.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yling\UNITY\Program\CosmereCodesName\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF86FB4C-89FA-4A59-A220-42623ABE2D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB103D5-7D30-496D-80EE-8F7B53CA341D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{A4CC4768-6466-43B2-8E1D-413DDF37FDFE}"/>
+    <workbookView xWindow="19340" yWindow="4680" windowWidth="17200" windowHeight="15370" activeTab="1" xr2:uid="{A4CC4768-6466-43B2-8E1D-413DDF37FDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Cosmere" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="299">
   <si>
     <t>#人物</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1022,6 +1022,166 @@
   </si>
   <si>
     <t>魔法英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩屑星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detritus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首要平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platform Prime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightburst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤独之影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Solitary Shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚城基地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surehold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎颅者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skullbreaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇盛族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kitsen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星际战机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starfighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重力容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GravCaps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光矛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light-Lance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向麦哲伦脉冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inverted Magellan Pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西格级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sigo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯拉查级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slatra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distructor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰尼克斯虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taynix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舷侧团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broadsider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮轰团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannonade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追击者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chaser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐罗杰团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jolly Roger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1445,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB6C4C7-4BF7-4775-8C7A-2F666786FF1A}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2463,7 +2623,7 @@
   <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2708,8 +2868,12 @@
       <c r="C11" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="F11" s="4" t="s">
         <v>156</v>
       </c>
@@ -2727,8 +2891,12 @@
       <c r="C12" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="F12" s="4" t="s">
         <v>162</v>
       </c>
@@ -2746,8 +2914,12 @@
       <c r="C13" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>164</v>
       </c>
@@ -2765,8 +2937,12 @@
       <c r="C14" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="F14" s="4" t="s">
         <v>168</v>
       </c>
@@ -2784,8 +2960,12 @@
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="F15" s="4" t="s">
         <v>194</v>
       </c>
@@ -2938,8 +3118,12 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -2953,8 +3137,12 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -2968,8 +3156,12 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -2983,8 +3175,12 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -2998,8 +3194,12 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -3013,8 +3213,12 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -3028,8 +3232,12 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -3043,8 +3251,12 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -3058,8 +3270,12 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
@@ -3073,8 +3289,12 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -3088,8 +3308,12 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
@@ -3103,8 +3327,12 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
@@ -3118,19 +3346,31 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -4130,8 +4370,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" tooltip="Alanik" display="https://coppermind.net/wiki/Alanik" xr:uid="{F3DFD0F1-9A15-466A-B11B-624B39628350}"/>
-    <hyperlink ref="C16" r:id="rId2" tooltip="Vapor" display="https://coppermind.net/wiki/Vapor" xr:uid="{4C1D3857-A3BF-4E70-BC3B-8F76FD4D05AA}"/>
+    <hyperlink ref="C15" r:id="rId1" tooltip="Alanik" display="https://coppermind.net/wiki/Alanik" xr:uid="{D6087619-D69A-419B-B7DB-72BEC797347D}"/>
+    <hyperlink ref="C16" r:id="rId2" tooltip="Vapor" display="https://coppermind.net/wiki/Vapor" xr:uid="{1FC34004-C31E-43CA-8019-2C849AF1BEC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Excel/CosmereCodesName.xlsx
+++ b/Assets/Excel/CosmereCodesName.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yling\UNITY\Program\CosmereCodesName\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wxy71\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9FDA48-74C1-4B5B-8359-0949F1702ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7751A6A-280A-461D-8DA2-E84420397F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A4CC4768-6466-43B2-8E1D-413DDF37FDFE}"/>
+    <workbookView xWindow="8205" yWindow="2565" windowWidth="19425" windowHeight="11385" xr2:uid="{A4CC4768-6466-43B2-8E1D-413DDF37FDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Cosmere" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="836">
   <si>
     <t>#人物</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>objectsAndMaterials_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>locations_EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,10 +389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lifforms_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>characters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1705,10 +1697,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inkspren</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血金术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2715,6 +2703,625 @@
   </si>
   <si>
     <t>物品和材料英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeforms_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectAndMaterial_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chanarach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恰娜兰奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vedel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维德尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pailiah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩莱阿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔拉内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talanel</t>
+  </si>
+  <si>
+    <t>克丽丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Khriss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resonance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韵律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rhythm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seventeenth Shard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十七神瑛团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shattering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿多拿西的破碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残瑛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splinter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑛灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanavast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔那万斯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰尔丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taldain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ba-Ado-Mishram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴阿多弥什兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒南忒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sja-anat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nightwatcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parshman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仆族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Division</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transportation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cohesion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内聚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honorspren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highspren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轩灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cultivationspren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inkspren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛拉塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ashmounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ascension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luthadel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路沙德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marsh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦迅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TenSoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统御主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Lord Ruler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多克森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dockson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉刹克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rashek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Twinborn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾兰迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alendi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海司辛深坑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pits of Hathsin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ati</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leras</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷拉斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳兹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nazh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红铜意识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coppermind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属意识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metalmind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歪脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demoux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德穆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goradel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛拉道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hazekiller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀雾者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ironeyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeLaan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宓兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mistsickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷雾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mistwraith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾魅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obligator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣务官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OreSeur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧瑟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁教廷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steel Ministry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰瑞司人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boxing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nohadon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺哈东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prime Aqasix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿卡希克斯大帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roshone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shardspear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎瑛矛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双螯虾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skrip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅莱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ialai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sadeas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒迪亚斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honorblade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oathgate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓约之门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safehand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sibling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同胞灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Takama</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武士袍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2892,9 +3499,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2932,7 +3539,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3038,7 +3645,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3180,7 +3787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3190,37 +3797,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB6C4C7-4BF7-4775-8C7A-2F666786FF1A}">
   <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.58203125" defaultRowHeight="22.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="23.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.58203125" style="8"/>
-    <col min="2" max="2" width="18.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.58203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="8"/>
+    <col min="2" max="2" width="22.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.58203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.58203125" customWidth="1"/>
+    <col min="14" max="15" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>80</v>
@@ -3232,13 +3839,13 @@
         <v>82</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>89</v>
+        <v>681</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>83</v>
@@ -3250,12 +3857,12 @@
         <v>85</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>86</v>
+        <v>682</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>79</v>
       </c>
@@ -3266,16 +3873,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>2</v>
@@ -3284,41 +3891,41 @@
         <v>3</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>30</v>
@@ -3327,293 +3934,293 @@
         <v>31</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>560</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>32</v>
@@ -3622,41 +4229,41 @@
         <v>33</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>429</v>
+        <v>735</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>34</v>
@@ -3665,72 +4272,72 @@
         <v>35</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>65</v>
@@ -3739,33 +4346,33 @@
         <v>68</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -3776,65 +4383,65 @@
         <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>56</v>
@@ -3843,35 +4450,35 @@
         <v>57</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>38</v>
@@ -3880,121 +4487,121 @@
         <v>39</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>46</v>
@@ -4003,92 +4610,96 @@
         <v>47</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+        <v>648</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>717</v>
+      </c>
       <c r="H21" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>53</v>
@@ -4097,32 +4708,36 @@
         <v>52</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+        <v>260</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>729</v>
+      </c>
       <c r="H22" s="5" t="s">
         <v>44</v>
       </c>
@@ -4130,21 +4745,21 @@
         <v>45</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -4155,52 +4770,60 @@
         <v>7</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+        <v>397</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>731</v>
+      </c>
       <c r="H23" s="5" t="s">
-        <v>44</v>
+        <v>805</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>45</v>
+        <v>806</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+        <v>654</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>733</v>
+      </c>
       <c r="H24" s="5" t="s">
         <v>42</v>
       </c>
@@ -4208,29 +4831,29 @@
         <v>43</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>48</v>
@@ -4238,8 +4861,12 @@
       <c r="E25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>795</v>
+      </c>
       <c r="H25" s="5" t="s">
         <v>36</v>
       </c>
@@ -4247,68 +4874,72 @@
         <v>37</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+        <v>360</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>821</v>
+      </c>
       <c r="H26" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>64</v>
@@ -4319,66 +4950,66 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -4389,10 +5020,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -4403,49 +5034,49 @@
         <v>41</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>58</v>
@@ -4456,31 +5087,35 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="J31" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>59</v>
@@ -4491,77 +5126,85 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>738</v>
+      </c>
       <c r="J32" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>742</v>
+      </c>
       <c r="J33" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -4572,20 +5215,24 @@
         <v>15</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+        <v>368</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>768</v>
+      </c>
       <c r="J34" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>70</v>
@@ -4594,106 +5241,110 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+        <v>308</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>828</v>
+      </c>
       <c r="J35" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+        <v>328</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+        <v>352</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -4704,29 +5355,29 @@
         <v>29</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+        <v>613</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -4742,149 +5393,177 @@
       <c r="E39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L39" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+        <v>292</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="5" t="s">
         <v>54</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L40" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>270</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>374</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>322</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>342</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -4895,42 +5574,50 @@
         <v>27</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>296</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+        <v>288</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>695</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -4941,38 +5628,50 @@
         <v>25</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+        <v>597</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>698</v>
+      </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>614</v>
-      </c>
       <c r="D48" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+        <v>605</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>701</v>
+      </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -4983,17 +5682,23 @@
         <v>21</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+        <v>640</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>704</v>
+      </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -5004,17 +5709,23 @@
         <v>11</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+        <v>633</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -5022,20 +5733,26 @@
         <v>18</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+        <v>637</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>719</v>
+      </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -5046,17 +5763,23 @@
         <v>19</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
+        <v>563</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>721</v>
+      </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -5067,78 +5790,112 @@
         <v>17</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+        <v>635</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>723</v>
+      </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>66</v>
@@ -5146,906 +5903,1238 @@
       <c r="E57" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>62</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>63</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>64</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>65</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="B67" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>715</v>
+      </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>736</v>
+      </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>745</v>
+      </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>747</v>
+      </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>749</v>
+      </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>751</v>
+      </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>753</v>
+      </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>755</v>
+      </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>757</v>
+      </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>759</v>
+      </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>764</v>
+      </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>770</v>
+      </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>771</v>
+      </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="7">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>774</v>
+      </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="7">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>779</v>
+      </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
+        <v>86</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>781</v>
+      </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
+        <v>87</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>783</v>
+      </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="7"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <v>88</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>785</v>
+      </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="7"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <v>90</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>799</v>
+      </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>91</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>801</v>
+      </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="7"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <v>92</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>803</v>
+      </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="7"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>809</v>
+      </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
+        <v>94</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>812</v>
+      </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="7"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
+        <v>95</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>816</v>
+      </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="7"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="7">
+        <v>96</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>823</v>
+      </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="7"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="7">
+        <v>97</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>824</v>
+      </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="7"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>832</v>
+      </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
+        <v>99</v>
+      </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="7"/>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="7">
+        <v>100</v>
+      </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="7"/>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="7">
+        <v>101</v>
+      </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
     </row>
@@ -6075,9 +7164,9 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -6100,7 +7189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -6123,705 +7212,705 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -6832,7 +7921,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -6843,7 +7932,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -6854,7 +7943,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -6865,7 +7954,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -6876,7 +7965,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -6887,7 +7976,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -6898,7 +7987,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6907,7 +7996,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -6916,7 +8005,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6925,7 +8014,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -6934,7 +8023,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -6943,7 +8032,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -6952,7 +8041,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -6961,7 +8050,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -6970,7 +8059,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -6979,7 +8068,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -6988,7 +8077,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -6997,7 +8086,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -7006,7 +8095,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -7015,7 +8104,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -7024,7 +8113,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -7033,7 +8122,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -7042,7 +8131,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -7051,7 +8140,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -7060,7 +8149,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -7069,7 +8158,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7078,7 +8167,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -7087,7 +8176,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -7096,7 +8185,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7105,7 +8194,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7114,7 +8203,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -7123,7 +8212,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -7132,7 +8221,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -7141,7 +8230,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -7150,7 +8239,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -7159,7 +8248,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -7168,7 +8257,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -7177,7 +8266,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -7186,7 +8275,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -7195,7 +8284,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -7204,7 +8293,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -7213,7 +8302,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -7222,7 +8311,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -7231,7 +8320,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -7240,7 +8329,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -7249,7 +8338,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -7258,7 +8347,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -7267,7 +8356,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -7276,7 +8365,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -7285,7 +8374,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -7294,7 +8383,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -7303,7 +8392,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -7312,7 +8401,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -7321,7 +8410,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -7330,7 +8419,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -7339,7 +8428,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -7348,7 +8437,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -7357,7 +8446,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -7366,7 +8455,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -7375,7 +8464,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -7384,7 +8473,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -7393,7 +8482,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -7402,7 +8491,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -7411,7 +8500,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -7420,7 +8509,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -7429,7 +8518,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -7438,7 +8527,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -7447,7 +8536,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -7456,7 +8545,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -7465,7 +8554,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -7474,7 +8563,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -7483,7 +8572,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -7492,7 +8581,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -7501,7 +8590,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -7510,7 +8599,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -7519,7 +8608,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -7528,7 +8617,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -7537,7 +8626,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -7546,7 +8635,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -7555,7 +8644,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -7564,7 +8653,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -7573,7 +8662,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -7582,7 +8671,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -7591,7 +8680,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -7600,7 +8689,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -7609,7 +8698,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -7618,7 +8707,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -7627,7 +8716,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -7636,7 +8725,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -7645,7 +8734,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7654,7 +8743,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7663,7 +8752,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7672,7 +8761,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7681,7 +8770,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7690,7 +8779,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7699,7 +8788,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -7708,7 +8797,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -7717,7 +8806,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -7726,7 +8815,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -7735,7 +8824,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -7744,7 +8833,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -7753,7 +8842,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -7762,7 +8851,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -7771,7 +8860,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -7780,7 +8869,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -7789,7 +8878,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -7798,7 +8887,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -7807,7 +8896,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
